--- a/testData/PythonDemo.xlsx
+++ b/testData/PythonDemo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shahnawazkhan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Home/python/selenium_framework/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56D0C1B5-20B8-254A-82C9-D8C620D0EC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8FB999-4AF2-0C45-B2AD-5EC89A4DCEAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{D84D87A2-FB0C-D649-9108-814AED02E2D5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -44,13 +44,73 @@
     <t>lastname</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
     <t>Testcase1</t>
   </si>
   <si>
     <t>Testcase2</t>
+  </si>
+  <si>
+    <t>Testcase3</t>
+  </si>
+  <si>
+    <t>Testcase4</t>
+  </si>
+  <si>
+    <t>Testcase5</t>
+  </si>
+  <si>
+    <t>Testcase6</t>
+  </si>
+  <si>
+    <t>Testcase7</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>khan</t>
+  </si>
+  <si>
+    <t>shahnawaz</t>
   </si>
 </sst>
 </file>
@@ -402,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B5A69C0-55EA-4D44-B6C7-862CDDC630F2}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -421,20 +481,109 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>